--- a/biology/Botanique/Aristolochiales/Aristolochiales.xlsx
+++ b/biology/Botanique/Aristolochiales/Aristolochiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Aristolochiales (Aristochiales) regroupe des plantes angiospermes primitives.
-En classification classique de Cronquist (1981)[1], il comprend une famille :
+En classification classique de Cronquist (1981), il comprend une famille :
 Aristolochiacées
-Cet ordre n'existe pas dans la classification phylogénétique APG II (2003)[2], dans la classification phylogénétique APG III (2009)[3] et dans la classification phylogénétique APG IV (2016)[4], la famille des Aristolochiacées est placée dans l'ordre de divergence ancienne des Piperales.
+Cet ordre n'existe pas dans la classification phylogénétique APG II (2003), dans la classification phylogénétique APG III (2009) et dans la classification phylogénétique APG IV (2016), la famille des Aristolochiacées est placée dans l'ordre de divergence ancienne des Piperales.
 </t>
         </is>
       </c>
